--- a/Studies/CAMspiracy/t1_segmentation_German/static/Scale Tobler et al., 2012/items Tobler 2012.xlsx
+++ b/Studies/CAMspiracy/t1_segmentation_German/static/Scale Tobler et al., 2012/items Tobler 2012.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\article - CAMspiracy\t1_segmentation\static\Scale Tobler et al., 2012\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATEN\PHD\labjsSoftware\livmats studies\Studies\CAMspiracy\t1_segmentation_German\static\Scale Tobler et al., 2012\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{F711D92A-1152-439E-9A90-BFE486D826C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{F3CA8DBD-73C4-42D4-9730-EBB7BB207D14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,9 +17,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Julius Fenn - Persönliche Ansicht" guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" mergeInterval="0" personalView="1" maximized="1" xWindow="1912" yWindow="-8" windowWidth="2576" windowHeight="1416" activeSheetId="1"/>
+    <customWorkbookView name="Julius Fenn - Persönliche Ansicht" guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="1"/>
+    <customWorkbookView name="Microsoft Office-Anwender - Persönliche Ansicht" guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" mergeInterval="0" personalView="1" windowWidth="1365" windowHeight="704" activeSheetId="1"/>
     <customWorkbookView name="Philipp Höfele - Persönliche Ansicht" guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" mergeInterval="0" personalView="1" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="Microsoft Office-Anwender - Persönliche Ansicht" guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" mergeInterval="0" personalView="1" windowWidth="1365" windowHeight="704" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -44,18 +44,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>We must protect the climate’s delicate equilibrium.</t>
-  </si>
-  <si>
-    <t>Climate protection is important for our future.</t>
-  </si>
-  <si>
-    <t>I worry about the climate’s state.</t>
-  </si>
-  <si>
-    <t>Climate change has severe consequences for humans and nature.</t>
-  </si>
-  <si>
     <t>02ccc</t>
   </si>
   <si>
@@ -68,12 +56,6 @@
     <t>04ccc</t>
   </si>
   <si>
-    <t>Climate protection measures are determined by a few powerful persons; as a single citizen, I have no effect.</t>
-  </si>
-  <si>
-    <t>With my behavior, I cannot influence the climate, as, in fact, it rests in the hands of the industry.</t>
-  </si>
-  <si>
     <t>01fop</t>
   </si>
   <si>
@@ -83,19 +65,10 @@
     <t>03fopr</t>
   </si>
   <si>
-    <t>As an ordinary citizen, I can influence governmental decisions regarding climate protection.</t>
-  </si>
-  <si>
-    <t>I feel able to contribute to climate protection.</t>
-  </si>
-  <si>
     <t>04fopr</t>
   </si>
   <si>
     <t>05fopr</t>
-  </si>
-  <si>
-    <t>If I tried to behave in a climate-friendly way, that would surely have a positive effect on the climate.</t>
   </si>
   <si>
     <t>01s</t>
@@ -110,27 +83,6 @@
     <t>04s</t>
   </si>
   <si>
-    <t>Climate change and its consequences are being exaggerated in the media.</t>
-  </si>
-  <si>
-    <t>Climate change is a racket.</t>
-  </si>
-  <si>
-    <t>As long as meteorologists are not even able to accurately forecast weather, climate cannot be reliably predicted either.</t>
-  </si>
-  <si>
-    <t>There are larger problems than climate protection.</t>
-  </si>
-  <si>
-    <t>I do not feel threatened by climate change.</t>
-  </si>
-  <si>
-    <t>The impacts of climate change are unpredictable; thus, my climate friendly behavior is futile.</t>
-  </si>
-  <si>
-    <t>Climate protection needlessly impedes economic growth.</t>
-  </si>
-  <si>
     <t>05s</t>
   </si>
   <si>
@@ -138,6 +90,54 @@
   </si>
   <si>
     <t>07s</t>
+  </si>
+  <si>
+    <t>Wir müssen das empfindliche Gleichgewicht des Klimas schützen.</t>
+  </si>
+  <si>
+    <t>Klimaschutz ist wichtig für unsere Zukunft.</t>
+  </si>
+  <si>
+    <t>Ich mache mir Sorgen über den Zustand des Klimas.</t>
+  </si>
+  <si>
+    <t>Der Klimawandel hat schwerwiegende Folgen für Mensch und Natur.</t>
+  </si>
+  <si>
+    <t>Klimaschutzmaßnahmen werden von wenigen mächtigen Personen bestimmt, ich als einzelner Bürger habe keinen Einfluss.</t>
+  </si>
+  <si>
+    <t>Mit meinem Verhalten kann ich das Klima nicht beeinflussen, denn es liegt in den Händen der Industrie.</t>
+  </si>
+  <si>
+    <t>Wenn ich versuchen würde, mich klimafreundlich zu verhalten, würde sich das sicher positiv auf das Klima auswirken.</t>
+  </si>
+  <si>
+    <t>Ich fühle mich in der Lage, einen Beitrag zum Klimaschutz zu leisten.</t>
+  </si>
+  <si>
+    <t>Als normaler Bürger kann ich die Entscheidungen der Regierung zum Klimaschutz beeinflussen.</t>
+  </si>
+  <si>
+    <t>Der Klimawandel und seine Folgen werden in den Medien übertrieben dargestellt.</t>
+  </si>
+  <si>
+    <t>Der Klimawandel ist eine Masche.</t>
+  </si>
+  <si>
+    <t>Solange Meteorologen nicht einmal in der Lage sind, das Wetter genau vorherzusagen, lässt sich auch das Klima nicht zuverlässig vorhersagen.</t>
+  </si>
+  <si>
+    <t>Es gibt größere Probleme als Klimaschutz.</t>
+  </si>
+  <si>
+    <t>Ich fühle mich durch den Klimawandel nicht bedroht.</t>
+  </si>
+  <si>
+    <t>Die Auswirkungen des Klimawandels sind unvorhersehbar; daher ist mein klimafreundliches Verhalten sinnlos.</t>
+  </si>
+  <si>
+    <t>Der Klimaschutz behindert unnötig das Wirtschaftswachstum.</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A789DCCE-F219-4AC0-8D8A-0A1CE2474930}" diskRevisions="1" revisionId="836" version="32">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{695206C8-D6B9-49F8-BD04-2E43AD2011C0}" diskRevisions="1" revisionId="852" version="34">
   <header guid="{09193A18-0B52-4FAB-B338-B4D967DC2D75}" dateTime="2022-09-29T13:56:20" maxSheetId="2" userName="Julius Fenn" r:id="rId23" minRId="265" maxRId="270">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -269,6 +269,16 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{6C25D48E-EB9E-426F-A107-1676370EAFC5}" dateTime="2023-11-25T18:00:07" maxSheetId="2" userName="Julius Fenn" r:id="rId36" minRId="837" maxRId="845">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{695206C8-D6B9-49F8-BD04-2E43AD2011C0}" dateTime="2023-11-25T18:00:28" maxSheetId="2" userName="Julius Fenn" r:id="rId37" minRId="846" maxRId="852">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -11677,6 +11687,255 @@
   </rcc>
   <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
   <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="837" sId="1" odxf="1" dxf="1">
+    <oc r="B2" t="inlineStr">
+      <is>
+        <t>We must protect the climate’s delicate equilibrium.</t>
+      </is>
+    </oc>
+    <nc r="B2" t="inlineStr">
+      <is>
+        <t>Wir müssen das empfindliche Gleichgewicht des Klimas schützen.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="838" sId="1" odxf="1" dxf="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>Climate protection is important for our future.</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>Klimaschutz ist wichtig für unsere Zukunft.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="839" sId="1" odxf="1" dxf="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>I worry about the climate’s state.</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>Ich mache mir Sorgen über den Zustand des Klimas.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="840" sId="1" odxf="1" dxf="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>Climate change has severe consequences for humans and nature.</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>Der Klimawandel hat schwerwiegende Folgen für Mensch und Natur.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="841" sId="1" odxf="1" dxf="1">
+    <oc r="B6" t="inlineStr">
+      <is>
+        <t>Climate protection measures are determined by a few powerful persons; as a single citizen, I have no effect.</t>
+      </is>
+    </oc>
+    <nc r="B6" t="inlineStr">
+      <is>
+        <t>Klimaschutzmaßnahmen werden von wenigen mächtigen Personen bestimmt, ich als einzelner Bürger habe keinen Einfluss.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="842" sId="1" odxf="1" dxf="1">
+    <oc r="B7" t="inlineStr">
+      <is>
+        <t>With my behavior, I cannot influence the climate, as, in fact, it rests in the hands of the industry.</t>
+      </is>
+    </oc>
+    <nc r="B7" t="inlineStr">
+      <is>
+        <t>Mit meinem Verhalten kann ich das Klima nicht beeinflussen, denn es liegt in den Händen der Industrie.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rfmt sheetId="1" sqref="B8" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B9" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rfmt sheetId="1" sqref="B10" start="0" length="0">
+    <dxf/>
+  </rfmt>
+  <rcc rId="843" sId="1">
+    <oc r="B10" t="inlineStr">
+      <is>
+        <t>If I tried to behave in a climate-friendly way, that would surely have a positive effect on the climate.</t>
+      </is>
+    </oc>
+    <nc r="B10" t="inlineStr">
+      <is>
+        <t>Wenn ich versuchen würde, mich klimafreundlich zu verhalten, würde sich das sicher positiv auf das Klima auswirken.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="844" sId="1">
+    <oc r="B9" t="inlineStr">
+      <is>
+        <t>I feel able to contribute to climate protection.</t>
+      </is>
+    </oc>
+    <nc r="B9" t="inlineStr">
+      <is>
+        <t>Ich fühle mich in der Lage, einen Beitrag zum Klimaschutz zu leisten.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="845" sId="1">
+    <oc r="B8" t="inlineStr">
+      <is>
+        <t>As an ordinary citizen, I can influence governmental decisions regarding climate protection.</t>
+      </is>
+    </oc>
+    <nc r="B8" t="inlineStr">
+      <is>
+        <t>Als normaler Bürger kann ich die Entscheidungen der Regierung zum Klimaschutz beeinflussen.</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="delete"/>
+  <rcv guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="846" sId="1" odxf="1" dxf="1">
+    <oc r="B11" t="inlineStr">
+      <is>
+        <t>Climate change and its consequences are being exaggerated in the media.</t>
+      </is>
+    </oc>
+    <nc r="B11" t="inlineStr">
+      <is>
+        <t>Der Klimawandel und seine Folgen werden in den Medien übertrieben dargestellt.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="847" sId="1" odxf="1" dxf="1">
+    <oc r="B12" t="inlineStr">
+      <is>
+        <t>Climate change is a racket.</t>
+      </is>
+    </oc>
+    <nc r="B12" t="inlineStr">
+      <is>
+        <t>Der Klimawandel ist eine Masche.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="848" sId="1" odxf="1" dxf="1">
+    <oc r="B13" t="inlineStr">
+      <is>
+        <t>As long as meteorologists are not even able to accurately forecast weather, climate cannot be reliably predicted either.</t>
+      </is>
+    </oc>
+    <nc r="B13" t="inlineStr">
+      <is>
+        <t>Solange Meteorologen nicht einmal in der Lage sind, das Wetter genau vorherzusagen, lässt sich auch das Klima nicht zuverlässig vorhersagen.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="849" sId="1" odxf="1" dxf="1">
+    <oc r="B14" t="inlineStr">
+      <is>
+        <t>There are larger problems than climate protection.</t>
+      </is>
+    </oc>
+    <nc r="B14" t="inlineStr">
+      <is>
+        <t>Es gibt größere Probleme als Klimaschutz.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="850" sId="1" odxf="1" dxf="1">
+    <oc r="B15" t="inlineStr">
+      <is>
+        <t>I do not feel threatened by climate change.</t>
+      </is>
+    </oc>
+    <nc r="B15" t="inlineStr">
+      <is>
+        <t>Ich fühle mich durch den Klimawandel nicht bedroht.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="851" sId="1" odxf="1" dxf="1">
+    <oc r="B16" t="inlineStr">
+      <is>
+        <t>The impacts of climate change are unpredictable; thus, my climate friendly behavior is futile.</t>
+      </is>
+    </oc>
+    <nc r="B16" t="inlineStr">
+      <is>
+        <t>Die Auswirkungen des Klimawandels sind unvorhersehbar; daher ist mein klimafreundliches Verhalten sinnlos.</t>
+      </is>
+    </nc>
+    <odxf/>
+    <ndxf/>
+  </rcc>
+  <rcc rId="852" sId="1" odxf="1" dxf="1">
+    <oc r="B17" t="inlineStr">
+      <is>
+        <t>Climate protection needlessly impedes economic growth.</t>
+      </is>
+    </oc>
+    <nc r="B17" t="inlineStr">
+      <is>
+        <t>Der Klimaschutz behindert unnötig das Wirtschaftswachstum.</t>
+      </is>
+    </nc>
+    <odxf>
+      <border outline="0">
+        <bottom/>
+      </border>
+    </odxf>
+    <ndxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </ndxf>
+  </rcc>
 </revisions>
 </file>
 
@@ -11954,8 +12213,8 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11973,148 +12232,148 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" scale="190" showPageBreaks="1" fitToPage="1">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{0AB4E75F-2D7B-4C5A-AD7C-1837EAFF8F53}" showPageBreaks="1" fitToPage="1">
+      <selection activeCell="E9" sqref="E9"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" scale="90" topLeftCell="B40">
-      <selection activeCell="F45" sqref="F45"/>
+    <customSheetView guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" scale="133" topLeftCell="A10">
+      <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{890A2A41-DF1E-FA42-8D9E-8E3DE3754670}" scale="133" topLeftCell="A10">
-      <selection activeCell="E18" sqref="E18"/>
+    <customSheetView guid="{47B4CD57-5B2E-4389-ABE6-89250A82D1C8}" scale="90" topLeftCell="B40">
+      <selection activeCell="F45" sqref="F45"/>
       <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
